--- a/GameStats.xlsx
+++ b/GameStats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="17">
   <si>
     <t># TURNS</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>3x Random</t>
+  </si>
+  <si>
+    <t>2x Random 1x Detective</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Colonel</t>
+  </si>
+  <si>
+    <t>Mustard</t>
   </si>
 </sst>
 </file>
@@ -395,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O108"/>
+  <dimension ref="B1:R108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,9 +433,13 @@
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
@@ -424,8 +452,14 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-    </row>
-    <row r="3" spans="2:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="N1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="3" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -450,8 +484,23 @@
       <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -487,8 +536,24 @@
         <f>AVERAGE(L9:L106)</f>
         <v>1.5974478844100979</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="5">
+        <f>MEDIAN(N9:N108)</f>
+        <v>66.5</v>
+      </c>
+      <c r="O5" s="5">
+        <f>MEDIAN(O9:O108)</f>
+        <v>28</v>
+      </c>
+      <c r="P5" s="5">
+        <f>MEDIAN(P9:P108)</f>
+        <v>26</v>
+      </c>
+      <c r="Q5" s="4" t="e">
+        <f>AVERAGE(Q9:Q106)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -524,8 +589,24 @@
         <f>MAX(L9:L108)</f>
         <v>4.0580645161290319</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f>MAX(N9:N108)</f>
+        <v>126</v>
+      </c>
+      <c r="O6">
+        <f>MAX(O9:O108)</f>
+        <v>47</v>
+      </c>
+      <c r="P6">
+        <f>MAX(P9:P108)</f>
+        <v>44</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>MAX(Q9:Q108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -561,9 +642,24 @@
         <f>MIN(L9:L108)</f>
         <v>1</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f>MIN(N9:N108)</f>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <f>MIN(O9:O108)</f>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>MIN(P9:P108)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>MIN(Q9:Q108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1</v>
       </c>
@@ -593,8 +689,23 @@
         <f>J9/K9</f>
         <v>1.8809523809523809</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>63</v>
+      </c>
+      <c r="O9">
+        <v>26</v>
+      </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>C9+1</f>
         <v>2</v>
@@ -625,8 +736,23 @@
         <f t="shared" ref="L10:L73" si="0">J10/K10</f>
         <v>1.6505376344086022</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>68</v>
+      </c>
+      <c r="O10">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>C10+1</f>
         <v>3</v>
@@ -657,8 +783,23 @@
         <f t="shared" si="0"/>
         <v>1.3453237410071943</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>73</v>
+      </c>
+      <c r="O11">
+        <v>30</v>
+      </c>
+      <c r="P11">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>C11+1</f>
         <v>4</v>
@@ -689,8 +830,23 @@
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>76</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>C12+1</f>
         <v>5</v>
@@ -721,8 +877,23 @@
         <f t="shared" si="0"/>
         <v>1.1967213114754098</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>29</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>C13+1</f>
         <v>6</v>
@@ -753,8 +924,23 @@
         <f t="shared" si="0"/>
         <v>1.7419354838709677</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>77</v>
+      </c>
+      <c r="O14">
+        <v>36</v>
+      </c>
+      <c r="P14">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>C14+1</f>
         <v>7</v>
@@ -785,8 +971,23 @@
         <f t="shared" si="0"/>
         <v>1.525974025974026</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>64</v>
+      </c>
+      <c r="O15">
+        <v>28</v>
+      </c>
+      <c r="P15">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>C15+1</f>
         <v>8</v>
@@ -817,8 +1018,23 @@
         <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>53</v>
+      </c>
+      <c r="O16">
+        <v>23</v>
+      </c>
+      <c r="P16">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>C16+1</f>
         <v>9</v>
@@ -849,8 +1065,23 @@
         <f t="shared" si="0"/>
         <v>1.0588235294117647</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>46</v>
+      </c>
+      <c r="O17">
+        <v>21</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>C17+1</f>
         <v>10</v>
@@ -881,8 +1112,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>28</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>C18+1</f>
         <v>11</v>
@@ -913,8 +1159,23 @@
         <f t="shared" si="0"/>
         <v>1.3520000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>54</v>
+      </c>
+      <c r="O19">
+        <v>21</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>C19+1</f>
         <v>12</v>
@@ -945,8 +1206,23 @@
         <f t="shared" si="0"/>
         <v>1.605</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>97</v>
+      </c>
+      <c r="O20">
+        <v>44</v>
+      </c>
+      <c r="P20">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>C20+1</f>
         <v>13</v>
@@ -977,8 +1253,23 @@
         <f t="shared" si="0"/>
         <v>1.1587301587301588</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>51</v>
+      </c>
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>C21+1</f>
         <v>14</v>
@@ -1009,8 +1300,23 @@
         <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>C22+1</f>
         <v>15</v>
@@ -1041,8 +1347,23 @@
         <f t="shared" si="0"/>
         <v>1.0625</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>68</v>
+      </c>
+      <c r="O23">
+        <v>26</v>
+      </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>C23+1</f>
         <v>16</v>
@@ -1073,8 +1394,23 @@
         <f t="shared" si="0"/>
         <v>1.5925925925925926</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>102</v>
+      </c>
+      <c r="O24">
+        <v>42</v>
+      </c>
+      <c r="P24">
+        <v>37</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>C24+1</f>
         <v>17</v>
@@ -1105,8 +1441,23 @@
         <f t="shared" si="0"/>
         <v>1.6329787234042554</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>31</v>
+      </c>
+      <c r="O25">
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <v>18</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>C25+1</f>
         <v>18</v>
@@ -1137,8 +1488,23 @@
         <f t="shared" si="0"/>
         <v>1.103448275862069</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>86</v>
+      </c>
+      <c r="O26">
+        <v>37</v>
+      </c>
+      <c r="P26">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>C26+1</f>
         <v>19</v>
@@ -1169,8 +1535,23 @@
         <f t="shared" si="0"/>
         <v>2.3308270676691731</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>65</v>
+      </c>
+      <c r="O27">
+        <v>24</v>
+      </c>
+      <c r="P27">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>C27+1</f>
         <v>20</v>
@@ -1201,8 +1582,23 @@
         <f t="shared" si="0"/>
         <v>1.0588235294117647</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>55</v>
+      </c>
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="P28">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>C28+1</f>
         <v>21</v>
@@ -1233,8 +1629,23 @@
         <f t="shared" si="0"/>
         <v>2.3769230769230769</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>24</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>C29+1</f>
         <v>22</v>
@@ -1265,8 +1676,23 @@
         <f t="shared" si="0"/>
         <v>2.3819444444444446</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>58</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>C30+1</f>
         <v>23</v>
@@ -1297,8 +1723,23 @@
         <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>53</v>
+      </c>
+      <c r="O31">
+        <v>19</v>
+      </c>
+      <c r="P31">
+        <v>18</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>C31+1</f>
         <v>24</v>
@@ -1329,8 +1770,23 @@
         <f t="shared" si="0"/>
         <v>1.9694323144104804</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>21</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>C32+1</f>
         <v>25</v>
@@ -1361,8 +1817,23 @@
         <f t="shared" si="0"/>
         <v>3.0230263157894739</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>74</v>
+      </c>
+      <c r="O33">
+        <v>30</v>
+      </c>
+      <c r="P33">
+        <v>28</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>C33+1</f>
         <v>26</v>
@@ -1393,8 +1864,23 @@
         <f t="shared" si="0"/>
         <v>1.5163398692810457</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>60</v>
+      </c>
+      <c r="O34">
+        <v>25</v>
+      </c>
+      <c r="P34">
+        <v>25</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>C34+1</f>
         <v>27</v>
@@ -1425,8 +1911,23 @@
         <f t="shared" si="0"/>
         <v>1.3557046979865772</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>126</v>
+      </c>
+      <c r="O35">
+        <v>47</v>
+      </c>
+      <c r="P35">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>C35+1</f>
         <v>28</v>
@@ -1457,8 +1958,23 @@
         <f t="shared" si="0"/>
         <v>1.3119266055045871</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>71</v>
+      </c>
+      <c r="O36">
+        <v>27</v>
+      </c>
+      <c r="P36">
+        <v>26</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>C36+1</f>
         <v>29</v>
@@ -1489,8 +2005,23 @@
         <f t="shared" si="0"/>
         <v>1.1839080459770115</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>60</v>
+      </c>
+      <c r="O37">
+        <v>23</v>
+      </c>
+      <c r="P37">
+        <v>19</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>C37+1</f>
         <v>30</v>
@@ -1521,8 +2052,23 @@
         <f t="shared" si="0"/>
         <v>1.2836879432624113</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>C38+1</f>
         <v>31</v>
@@ -1553,8 +2099,23 @@
         <f t="shared" si="0"/>
         <v>1.3945578231292517</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>108</v>
+      </c>
+      <c r="O39">
+        <v>41</v>
+      </c>
+      <c r="P39">
+        <v>36</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>C39+1</f>
         <v>32</v>
@@ -1585,8 +2146,23 @@
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>89</v>
+      </c>
+      <c r="O40">
+        <v>36</v>
+      </c>
+      <c r="P40">
+        <v>33</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>11</v>
+      </c>
+      <c r="R40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>C40+1</f>
         <v>33</v>
@@ -1617,8 +2193,23 @@
         <f t="shared" si="0"/>
         <v>2.4139194139194138</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>78</v>
+      </c>
+      <c r="O41">
+        <v>34</v>
+      </c>
+      <c r="P41">
+        <v>33</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>C41+1</f>
         <v>34</v>
@@ -1649,8 +2240,23 @@
         <f t="shared" si="0"/>
         <v>2.4878048780487805</v>
       </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>60</v>
+      </c>
+      <c r="O42">
+        <v>24</v>
+      </c>
+      <c r="P42">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>C42+1</f>
         <v>35</v>
@@ -1681,8 +2287,23 @@
         <f t="shared" si="0"/>
         <v>1.3788819875776397</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>72</v>
+      </c>
+      <c r="O43">
+        <v>30</v>
+      </c>
+      <c r="P43">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>C43+1</f>
         <v>36</v>
@@ -1713,8 +2334,23 @@
         <f t="shared" si="0"/>
         <v>2.4142857142857141</v>
       </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>65</v>
+      </c>
+      <c r="O44">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>C44+1</f>
         <v>37</v>
@@ -1745,8 +2381,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>89</v>
+      </c>
+      <c r="O45">
+        <v>39</v>
+      </c>
+      <c r="P45">
+        <v>36</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>C45+1</f>
         <v>38</v>
@@ -1777,8 +2428,23 @@
         <f t="shared" si="0"/>
         <v>1.03125</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>97</v>
+      </c>
+      <c r="O46">
+        <v>38</v>
+      </c>
+      <c r="P46">
+        <v>36</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>C46+1</f>
         <v>39</v>
@@ -1809,8 +2475,23 @@
         <f t="shared" si="0"/>
         <v>1.6964285714285714</v>
       </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>86</v>
+      </c>
+      <c r="O47">
+        <v>34</v>
+      </c>
+      <c r="P47">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>C47+1</f>
         <v>40</v>
@@ -1841,8 +2522,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>104</v>
+      </c>
+      <c r="O48">
+        <v>43</v>
+      </c>
+      <c r="P48">
+        <v>40</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>11</v>
+      </c>
+      <c r="R48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>C48+1</f>
         <v>41</v>
@@ -1873,8 +2569,23 @@
         <f t="shared" si="0"/>
         <v>1.4363636363636363</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>82</v>
+      </c>
+      <c r="O49">
+        <v>33</v>
+      </c>
+      <c r="P49">
+        <v>30</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>11</v>
+      </c>
+      <c r="R49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>C49+1</f>
         <v>42</v>
@@ -1905,8 +2616,23 @@
         <f t="shared" si="0"/>
         <v>1.2764227642276422</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>68</v>
+      </c>
+      <c r="O50">
+        <v>31</v>
+      </c>
+      <c r="P50">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>11</v>
+      </c>
+      <c r="R50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>C50+1</f>
         <v>43</v>
@@ -1937,8 +2663,23 @@
         <f t="shared" si="0"/>
         <v>1.1176470588235294</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>86</v>
+      </c>
+      <c r="O51">
+        <v>40</v>
+      </c>
+      <c r="P51">
+        <v>37</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>11</v>
+      </c>
+      <c r="R51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>C51+1</f>
         <v>44</v>
@@ -1969,8 +2710,23 @@
         <f t="shared" si="0"/>
         <v>1.1129032258064515</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>86</v>
+      </c>
+      <c r="O52">
+        <v>30</v>
+      </c>
+      <c r="P52">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>11</v>
+      </c>
+      <c r="R52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>C52+1</f>
         <v>45</v>
@@ -2001,8 +2757,23 @@
         <f t="shared" si="0"/>
         <v>2.7067137809187281</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>30</v>
+      </c>
+      <c r="O53">
+        <v>13</v>
+      </c>
+      <c r="P53">
+        <v>13</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>11</v>
+      </c>
+      <c r="R53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>C53+1</f>
         <v>46</v>
@@ -2033,8 +2804,23 @@
         <f t="shared" si="0"/>
         <v>2.7302631578947367</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>19</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <v>7</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>C54+1</f>
         <v>47</v>
@@ -2065,8 +2851,23 @@
         <f t="shared" si="0"/>
         <v>1.3458646616541354</v>
       </c>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>90</v>
+      </c>
+      <c r="O55">
+        <v>36</v>
+      </c>
+      <c r="P55">
+        <v>31</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>11</v>
+      </c>
+      <c r="R55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>C55+1</f>
         <v>48</v>
@@ -2097,8 +2898,23 @@
         <f t="shared" si="0"/>
         <v>1.6271929824561404</v>
       </c>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>67</v>
+      </c>
+      <c r="O56">
+        <v>33</v>
+      </c>
+      <c r="P56">
+        <v>32</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>11</v>
+      </c>
+      <c r="R56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>C56+1</f>
         <v>49</v>
@@ -2129,8 +2945,23 @@
         <f t="shared" si="0"/>
         <v>1.264367816091954</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>61</v>
+      </c>
+      <c r="O57">
+        <v>31</v>
+      </c>
+      <c r="P57">
+        <v>30</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>11</v>
+      </c>
+      <c r="R57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>C57+1</f>
         <v>50</v>
@@ -2161,8 +2992,23 @@
         <f t="shared" si="0"/>
         <v>1.2868217054263567</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>48</v>
+      </c>
+      <c r="O58">
+        <v>17</v>
+      </c>
+      <c r="P58">
+        <v>16</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>11</v>
+      </c>
+      <c r="R58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>C58+1</f>
         <v>51</v>
@@ -2193,8 +3039,23 @@
         <f t="shared" si="0"/>
         <v>2.4233576642335768</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>7</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>11</v>
+      </c>
+      <c r="R59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>C59+1</f>
         <v>52</v>
@@ -2225,8 +3086,23 @@
         <f t="shared" si="0"/>
         <v>2.2705882352941176</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>86</v>
+      </c>
+      <c r="O60">
+        <v>35</v>
+      </c>
+      <c r="P60">
+        <v>33</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>11</v>
+      </c>
+      <c r="R60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>C60+1</f>
         <v>53</v>
@@ -2257,8 +3133,23 @@
         <f t="shared" si="0"/>
         <v>1.9087301587301588</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>73</v>
+      </c>
+      <c r="O61">
+        <v>32</v>
+      </c>
+      <c r="P61">
+        <v>32</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>11</v>
+      </c>
+      <c r="R61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>C61+1</f>
         <v>54</v>
@@ -2289,8 +3180,23 @@
         <f t="shared" si="0"/>
         <v>1.2109375</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>72</v>
+      </c>
+      <c r="O62">
+        <v>28</v>
+      </c>
+      <c r="P62">
+        <v>25</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>11</v>
+      </c>
+      <c r="R62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>C62+1</f>
         <v>55</v>
@@ -2321,8 +3227,23 @@
         <f t="shared" si="0"/>
         <v>1.141025641025641</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>18</v>
+      </c>
+      <c r="O63">
+        <v>6</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>11</v>
+      </c>
+      <c r="R63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>C63+1</f>
         <v>56</v>
@@ -2353,8 +3274,23 @@
         <f t="shared" si="0"/>
         <v>1.6696832579185521</v>
       </c>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>92</v>
+      </c>
+      <c r="O64">
+        <v>34</v>
+      </c>
+      <c r="P64">
+        <v>31</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>11</v>
+      </c>
+      <c r="R64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>C64+1</f>
         <v>57</v>
@@ -2385,8 +3321,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>36</v>
+      </c>
+      <c r="O65">
+        <v>13</v>
+      </c>
+      <c r="P65">
+        <v>13</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>C65+1</f>
         <v>58</v>
@@ -2417,8 +3368,23 @@
         <f t="shared" si="0"/>
         <v>1.4973544973544974</v>
       </c>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>77</v>
+      </c>
+      <c r="O66">
+        <v>31</v>
+      </c>
+      <c r="P66">
+        <v>29</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>C66+1</f>
         <v>59</v>
@@ -2449,8 +3415,23 @@
         <f t="shared" si="0"/>
         <v>1.5179487179487179</v>
       </c>
-    </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>48</v>
+      </c>
+      <c r="O67">
+        <v>24</v>
+      </c>
+      <c r="P67">
+        <v>23</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>11</v>
+      </c>
+      <c r="R67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>C67+1</f>
         <v>60</v>
@@ -2481,8 +3462,23 @@
         <f t="shared" si="0"/>
         <v>1.4805194805194806</v>
       </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>77</v>
+      </c>
+      <c r="O68">
+        <v>34</v>
+      </c>
+      <c r="P68">
+        <v>33</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>11</v>
+      </c>
+      <c r="R68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>C68+1</f>
         <v>61</v>
@@ -2513,8 +3509,23 @@
         <f t="shared" si="0"/>
         <v>1.948</v>
       </c>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>88</v>
+      </c>
+      <c r="O69">
+        <v>38</v>
+      </c>
+      <c r="P69">
+        <v>36</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>11</v>
+      </c>
+      <c r="R69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>C69+1</f>
         <v>62</v>
@@ -2545,8 +3556,23 @@
         <f t="shared" si="0"/>
         <v>1.1149425287356323</v>
       </c>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>40</v>
+      </c>
+      <c r="O70">
+        <v>18</v>
+      </c>
+      <c r="P70">
+        <v>15</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>C70+1</f>
         <v>63</v>
@@ -2577,8 +3603,23 @@
         <f t="shared" si="0"/>
         <v>1.780373831775701</v>
       </c>
-    </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>53</v>
+      </c>
+      <c r="O71">
+        <v>25</v>
+      </c>
+      <c r="P71">
+        <v>25</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>11</v>
+      </c>
+      <c r="R71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>C71+1</f>
         <v>64</v>
@@ -2609,8 +3650,23 @@
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>24</v>
+      </c>
+      <c r="O72">
+        <v>8</v>
+      </c>
+      <c r="P72">
+        <v>8</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>11</v>
+      </c>
+      <c r="R72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>C72+1</f>
         <v>65</v>
@@ -2641,8 +3697,23 @@
         <f t="shared" si="0"/>
         <v>1.3612903225806452</v>
       </c>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>66</v>
+      </c>
+      <c r="O73">
+        <v>30</v>
+      </c>
+      <c r="P73">
+        <v>29</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>11</v>
+      </c>
+      <c r="R73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>C73+1</f>
         <v>66</v>
@@ -2673,8 +3744,23 @@
         <f t="shared" ref="L74:L106" si="1">J74/K74</f>
         <v>1.8447488584474885</v>
       </c>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>46</v>
+      </c>
+      <c r="O74">
+        <v>24</v>
+      </c>
+      <c r="P74">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>11</v>
+      </c>
+      <c r="R74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>C74+1</f>
         <v>67</v>
@@ -2705,8 +3791,23 @@
         <f t="shared" si="1"/>
         <v>1.6267942583732058</v>
       </c>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>68</v>
+      </c>
+      <c r="O75">
+        <v>30</v>
+      </c>
+      <c r="P75">
+        <v>30</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>11</v>
+      </c>
+      <c r="R75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>C75+1</f>
         <v>68</v>
@@ -2737,8 +3838,23 @@
         <f t="shared" si="1"/>
         <v>3.550488599348534</v>
       </c>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>76</v>
+      </c>
+      <c r="O76">
+        <v>29</v>
+      </c>
+      <c r="P76">
+        <v>28</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>11</v>
+      </c>
+      <c r="R76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>C76+1</f>
         <v>69</v>
@@ -2769,8 +3885,23 @@
         <f t="shared" si="1"/>
         <v>1.0487804878048781</v>
       </c>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>66</v>
+      </c>
+      <c r="O77">
+        <v>32</v>
+      </c>
+      <c r="P77">
+        <v>29</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>11</v>
+      </c>
+      <c r="R77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>C77+1</f>
         <v>70</v>
@@ -2801,8 +3932,23 @@
         <f t="shared" si="1"/>
         <v>1.3486842105263157</v>
       </c>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>36</v>
+      </c>
+      <c r="O78">
+        <v>14</v>
+      </c>
+      <c r="P78">
+        <v>14</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>11</v>
+      </c>
+      <c r="R78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>C78+1</f>
         <v>71</v>
@@ -2833,8 +3979,23 @@
         <f t="shared" si="1"/>
         <v>1.4191176470588236</v>
       </c>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>15</v>
+      </c>
+      <c r="O79">
+        <v>8</v>
+      </c>
+      <c r="P79">
+        <v>8</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>11</v>
+      </c>
+      <c r="R79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>C79+1</f>
         <v>72</v>
@@ -2865,8 +4026,23 @@
         <f t="shared" si="1"/>
         <v>1.4819819819819819</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>79</v>
+      </c>
+      <c r="O80">
+        <v>31</v>
+      </c>
+      <c r="P80">
+        <v>28</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>C80+1</f>
         <v>73</v>
@@ -2897,8 +4073,23 @@
         <f t="shared" si="1"/>
         <v>1.1095890410958904</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>64</v>
+      </c>
+      <c r="O81">
+        <v>28</v>
+      </c>
+      <c r="P81">
+        <v>26</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>C81+1</f>
         <v>74</v>
@@ -2929,8 +4120,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>71</v>
+      </c>
+      <c r="O82">
+        <v>26</v>
+      </c>
+      <c r="P82">
+        <v>26</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>11</v>
+      </c>
+      <c r="R82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>C82+1</f>
         <v>75</v>
@@ -2961,8 +4167,23 @@
         <f t="shared" si="1"/>
         <v>2.1115241635687734</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <v>83</v>
+      </c>
+      <c r="O83">
+        <v>35</v>
+      </c>
+      <c r="P83">
+        <v>35</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>C83+1</f>
         <v>76</v>
@@ -2993,8 +4214,23 @@
         <f t="shared" si="1"/>
         <v>1.5195530726256983</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>70</v>
+      </c>
+      <c r="O84">
+        <v>31</v>
+      </c>
+      <c r="P84">
+        <v>29</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>11</v>
+      </c>
+      <c r="R84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>C84+1</f>
         <v>77</v>
@@ -3025,8 +4261,23 @@
         <f t="shared" si="1"/>
         <v>1.9571984435797665</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>48</v>
+      </c>
+      <c r="O85">
+        <v>19</v>
+      </c>
+      <c r="P85">
+        <v>19</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>11</v>
+      </c>
+      <c r="R85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>C85+1</f>
         <v>78</v>
@@ -3057,8 +4308,23 @@
         <f t="shared" si="1"/>
         <v>1.549738219895288</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>102</v>
+      </c>
+      <c r="O86">
+        <v>42</v>
+      </c>
+      <c r="P86">
+        <v>42</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>11</v>
+      </c>
+      <c r="R86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>C86+1</f>
         <v>79</v>
@@ -3089,8 +4355,23 @@
         <f t="shared" si="1"/>
         <v>1.7838983050847457</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>61</v>
+      </c>
+      <c r="O87">
+        <v>25</v>
+      </c>
+      <c r="P87">
+        <v>24</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>11</v>
+      </c>
+      <c r="R87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>C87+1</f>
         <v>80</v>
@@ -3121,8 +4402,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>44</v>
+      </c>
+      <c r="O88">
+        <v>20</v>
+      </c>
+      <c r="P88">
+        <v>19</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>11</v>
+      </c>
+      <c r="R88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>C88+1</f>
         <v>81</v>
@@ -3153,8 +4449,23 @@
         <f t="shared" si="1"/>
         <v>1.1081081081081081</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>59</v>
+      </c>
+      <c r="O89">
+        <v>27</v>
+      </c>
+      <c r="P89">
+        <v>25</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>11</v>
+      </c>
+      <c r="R89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>C89+1</f>
         <v>82</v>
@@ -3185,8 +4496,23 @@
         <f t="shared" si="1"/>
         <v>4.0580645161290319</v>
       </c>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>84</v>
+      </c>
+      <c r="O90">
+        <v>33</v>
+      </c>
+      <c r="P90">
+        <v>32</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>11</v>
+      </c>
+      <c r="R90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>C90+1</f>
         <v>83</v>
@@ -3217,8 +4543,23 @@
         <f t="shared" si="1"/>
         <v>3.407766990291262</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>27</v>
+      </c>
+      <c r="O91">
+        <v>9</v>
+      </c>
+      <c r="P91">
+        <v>9</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>C91+1</f>
         <v>84</v>
@@ -3249,8 +4590,23 @@
         <f t="shared" si="1"/>
         <v>3.7507886435331232</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>76</v>
+      </c>
+      <c r="O92">
+        <v>30</v>
+      </c>
+      <c r="P92">
+        <v>28</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>11</v>
+      </c>
+      <c r="R92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>C92+1</f>
         <v>85</v>
@@ -3281,8 +4637,23 @@
         <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>70</v>
+      </c>
+      <c r="O93">
+        <v>28</v>
+      </c>
+      <c r="P93">
+        <v>28</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>11</v>
+      </c>
+      <c r="R93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>C93+1</f>
         <v>86</v>
@@ -3313,8 +4684,23 @@
         <f t="shared" si="1"/>
         <v>1.3642384105960266</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>52</v>
+      </c>
+      <c r="O94">
+        <v>21</v>
+      </c>
+      <c r="P94">
+        <v>21</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>15</v>
+      </c>
+      <c r="R94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>C94+1</f>
         <v>87</v>
@@ -3345,8 +4731,23 @@
         <f t="shared" si="1"/>
         <v>1.1142857142857143</v>
       </c>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <v>61</v>
+      </c>
+      <c r="O95">
+        <v>24</v>
+      </c>
+      <c r="P95">
+        <v>24</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>11</v>
+      </c>
+      <c r="R95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>C95+1</f>
         <v>88</v>
@@ -3377,8 +4778,23 @@
         <f t="shared" si="1"/>
         <v>1.3380281690140845</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>75</v>
+      </c>
+      <c r="O96">
+        <v>33</v>
+      </c>
+      <c r="P96">
+        <v>33</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>11</v>
+      </c>
+      <c r="R96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>C96+1</f>
         <v>89</v>
@@ -3409,8 +4825,23 @@
         <f t="shared" si="1"/>
         <v>2.5675675675675675</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>69</v>
+      </c>
+      <c r="O97">
+        <v>29</v>
+      </c>
+      <c r="P97">
+        <v>29</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>C97+1</f>
         <v>90</v>
@@ -3441,8 +4872,23 @@
         <f t="shared" si="1"/>
         <v>1.411764705882353</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>59</v>
+      </c>
+      <c r="O98">
+        <v>22</v>
+      </c>
+      <c r="P98">
+        <v>22</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>11</v>
+      </c>
+      <c r="R98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>C98+1</f>
         <v>91</v>
@@ -3473,8 +4919,23 @@
         <f t="shared" si="1"/>
         <v>1.3915662650602409</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <v>86</v>
+      </c>
+      <c r="O99">
+        <v>33</v>
+      </c>
+      <c r="P99">
+        <v>30</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>11</v>
+      </c>
+      <c r="R99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>C99+1</f>
         <v>92</v>
@@ -3505,8 +4966,23 @@
         <f t="shared" si="1"/>
         <v>1.1403508771929824</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>14</v>
+      </c>
+      <c r="O100">
+        <v>7</v>
+      </c>
+      <c r="P100">
+        <v>7</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>11</v>
+      </c>
+      <c r="R100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>C100+1</f>
         <v>93</v>
@@ -3537,8 +5013,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>32</v>
+      </c>
+      <c r="O101">
+        <v>11</v>
+      </c>
+      <c r="P101">
+        <v>10</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>11</v>
+      </c>
+      <c r="R101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>C101+1</f>
         <v>94</v>
@@ -3569,8 +5060,23 @@
         <f t="shared" si="1"/>
         <v>1.2586206896551724</v>
       </c>
-    </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>55</v>
+      </c>
+      <c r="O102">
+        <v>23</v>
+      </c>
+      <c r="P102">
+        <v>22</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>C102+1</f>
         <v>95</v>
@@ -3601,8 +5107,23 @@
         <f t="shared" si="1"/>
         <v>1.4251497005988023</v>
       </c>
-    </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>78</v>
+      </c>
+      <c r="O103">
+        <v>31</v>
+      </c>
+      <c r="P103">
+        <v>26</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>11</v>
+      </c>
+      <c r="R103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>C103+1</f>
         <v>96</v>
@@ -3633,8 +5154,23 @@
         <f t="shared" si="1"/>
         <v>1.6512820512820512</v>
       </c>
-    </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>100</v>
+      </c>
+      <c r="O104">
+        <v>38</v>
+      </c>
+      <c r="P104">
+        <v>36</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>11</v>
+      </c>
+      <c r="R104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C105">
         <f>C104+1</f>
         <v>97</v>
@@ -3665,8 +5201,23 @@
         <f t="shared" si="1"/>
         <v>1.3312101910828025</v>
       </c>
-    </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>78</v>
+      </c>
+      <c r="O105">
+        <v>32</v>
+      </c>
+      <c r="P105">
+        <v>30</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>11</v>
+      </c>
+      <c r="R105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C106">
         <f>C105+1</f>
         <v>98</v>
@@ -3697,8 +5248,23 @@
         <f t="shared" si="1"/>
         <v>1.0666666666666667</v>
       </c>
-    </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>34</v>
+      </c>
+      <c r="O106">
+        <v>15</v>
+      </c>
+      <c r="P106">
+        <v>15</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>11</v>
+      </c>
+      <c r="R106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C107">
         <f>C106+1</f>
         <v>99</v>
@@ -3716,8 +5282,23 @@
         <f>E107/F107</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>83</v>
+      </c>
+      <c r="O107">
+        <v>38</v>
+      </c>
+      <c r="P107">
+        <v>36</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>11</v>
+      </c>
+      <c r="R107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C108">
         <f>C107+1</f>
         <v>100</v>
@@ -3735,11 +5316,28 @@
         <f>E108/F108</f>
         <v>1</v>
       </c>
+      <c r="N108">
+        <v>76</v>
+      </c>
+      <c r="O108">
+        <v>28</v>
+      </c>
+      <c r="P108">
+        <v>24</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>11</v>
+      </c>
+      <c r="R108" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <dataConsolidate/>
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
